--- a/開発資料.xlsx
+++ b/開発資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emorishunfutoshi/Documents/RYOSUKE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habicht\Documents\development\springboot_springthymeleaf_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE96F64-1E64-A641-81B7-85893BD32026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A64062-B5D4-4DEF-9F03-892C64E88517}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="460" windowWidth="37080" windowHeight="23540" xr2:uid="{EA615789-2493-ED49-9566-5F80B868C8CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EA615789-2493-ED49-9566-5F80B868C8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル一覧!$B$90:$K$105</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="180">
   <si>
     <t>会員ID</t>
     <rPh sb="0" eb="2">
@@ -900,7 +899,7 @@
   </si>
   <si>
     <t>ITEM</t>
-    <rPh sb="4" eb="6">
+    <rPh sb="0" eb="4">
       <t xml:space="preserve">ショウヒンマスタ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -911,14 +910,14 @@
   </si>
   <si>
     <t>CART_DETAIL</t>
-    <rPh sb="14" eb="16">
+    <rPh sb="0" eb="11">
       <t xml:space="preserve">メイサイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ORDER_HEADER</t>
-    <rPh sb="12" eb="14">
+    <rPh sb="0" eb="12">
       <t xml:space="preserve">ジュチュウヘッダ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -932,7 +931,7 @@
   </si>
   <si>
     <t>CATEGORY_ITEM</t>
-    <rPh sb="17" eb="19">
+    <rPh sb="0" eb="13">
       <t xml:space="preserve">ショウヒン </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -946,7 +945,7 @@
   </si>
   <si>
     <t>ORDER_DETAIL</t>
-    <rPh sb="15" eb="17">
+    <rPh sb="0" eb="12">
       <t xml:space="preserve">メイサイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1018,6 +1017,121 @@
   </si>
   <si>
     <t>/v1/items/{item_code}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに入れる</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートから消す</t>
+    <rPh sb="5" eb="6">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートの中身を取得する</t>
+    <rPh sb="4" eb="6">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートに入れ数量を変更</t>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文登録</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文番号の取得</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員登録</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会員情報の変更</t>
+    <rPh sb="0" eb="2">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定メールの発行</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢確認(購入商品事)</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1025,7 +1139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1487,28 +1601,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2EB35-8E17-8E42-8F60-D3BDDFF6E09D}">
   <dimension ref="B2:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J159" sqref="J159"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="33">
+    <row r="2" spans="2:14" ht="33" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="2" customFormat="1">
+    <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
@@ -1516,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
@@ -1552,7 +1668,7 @@
         <v>CREATE TABLE `CUSTOMER` (</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1588,7 +1704,7 @@
         <v>`CUSTOMER_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1620,7 +1736,7 @@
         <v>`FIRST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1652,7 +1768,7 @@
         <v>`LAST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1686,7 +1802,7 @@
         <v>`POSTAL_CODE` MEDIUMINT(7)  NOT NULL,</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1720,7 +1836,7 @@
         <v>`PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1752,7 +1868,7 @@
         <v>`ADDRESS1` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1784,7 +1900,7 @@
         <v>`ADDRESS2` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1816,7 +1932,7 @@
         <v>`ADDRESS3` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -1848,7 +1964,7 @@
         <v>`ADDRESS4` VARCHAR(50) ,</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -1882,7 +1998,7 @@
         <v>`CUSTOMER_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -1914,7 +2030,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -1946,7 +2062,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -1978,7 +2094,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="21" customHeight="1">
+    <row r="19" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -2010,7 +2126,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -2044,7 +2160,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2060,7 +2176,7 @@
         <v>PRIMARY KEY (`CUSTOMER_CODE`)</v>
       </c>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2075,7 +2191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2087,7 +2203,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="26" spans="2:14" s="2" customFormat="1">
+    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>147</v>
       </c>
@@ -2095,7 +2211,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
@@ -2131,7 +2247,7 @@
         <v>CREATE TABLE `PREF` (</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B28" s="3">
         <v>1</v>
       </c>
@@ -2166,7 +2282,7 @@
         <v>`PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -2198,7 +2314,7 @@
         <v>`PREF_NAME` VARCHAR(4)  NOT NULL,</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -2230,7 +2346,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -2262,7 +2378,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -2294,7 +2410,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="21" customHeight="1">
+    <row r="33" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -2326,7 +2442,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -2360,7 +2476,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2376,7 +2492,7 @@
         <v>PRIMARY KEY (`PREF_CODE`)</v>
       </c>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2391,7 +2507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2403,7 +2519,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2415,7 +2531,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="42" spans="2:14" s="2" customFormat="1">
+    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
@@ -2423,7 +2539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B43" s="5" t="s">
         <v>61</v>
       </c>
@@ -2459,7 +2575,7 @@
         <v>CREATE TABLE `ITEM` (</v>
       </c>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2493,7 +2609,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -2525,7 +2641,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -2557,7 +2673,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -2591,7 +2707,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -2625,7 +2741,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -2657,7 +2773,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -2691,7 +2807,7 @@
         <v>`DESCRIPTION` VARCHAR(500) ,</v>
       </c>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B51" s="3">
         <v>8</v>
       </c>
@@ -2723,7 +2839,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B52" s="3">
         <v>9</v>
       </c>
@@ -2755,7 +2871,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B53" s="3">
         <v>10</v>
       </c>
@@ -2787,7 +2903,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="21" customHeight="1">
+    <row r="54" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B54" s="3">
         <v>11</v>
       </c>
@@ -2819,7 +2935,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B55" s="3">
         <v>12</v>
       </c>
@@ -2853,18 +2969,18 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N56" t="str">
         <f>_xlfn.CONCAT("PRIMARY KEY (`",D44,"`)")</f>
         <v>PRIMARY KEY (`ITEM_CODE`)</v>
       </c>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
       <c r="M57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="2" customFormat="1">
+    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B59" s="2" t="s">
         <v>149</v>
       </c>
@@ -2872,7 +2988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B60" s="5" t="s">
         <v>61</v>
       </c>
@@ -2908,7 +3024,7 @@
         <v>CREATE TABLE `CART` (</v>
       </c>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -2944,7 +3060,7 @@
         <v>`CART_KEY` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B62" s="3">
         <v>2</v>
       </c>
@@ -2976,7 +3092,7 @@
         <v>`CART_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -3008,7 +3124,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B64" s="3">
         <v>4</v>
       </c>
@@ -3040,7 +3156,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3072,7 +3188,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="21" customHeight="1">
+    <row r="66" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <v>6</v>
       </c>
@@ -3104,7 +3220,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <v>7</v>
       </c>
@@ -3138,7 +3254,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3154,7 +3270,7 @@
         <v>PRIMARY KEY (`CART_KEY`)</v>
       </c>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3169,7 +3285,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="2" customFormat="1">
+    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B71" s="2" t="s">
         <v>150</v>
       </c>
@@ -3177,7 +3293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B72" s="5" t="s">
         <v>61</v>
       </c>
@@ -3213,7 +3329,7 @@
         <v>CREATE TABLE `CART_DETAIL` (</v>
       </c>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
         <v>1</v>
       </c>
@@ -3249,7 +3365,7 @@
         <v>`CART_KEY` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B74" s="3">
         <v>2</v>
       </c>
@@ -3283,7 +3399,7 @@
         <v>`CART_SEQ` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B75" s="3">
         <v>3</v>
       </c>
@@ -3315,7 +3431,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
         <v>4</v>
       </c>
@@ -3347,7 +3463,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B77" s="3">
         <v>5</v>
       </c>
@@ -3379,7 +3495,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="78" spans="2:14">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B78" s="3">
         <v>6</v>
       </c>
@@ -3413,7 +3529,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B79" s="3">
         <v>7</v>
       </c>
@@ -3447,7 +3563,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="80" spans="2:14">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B80" s="3">
         <v>8</v>
       </c>
@@ -3479,7 +3595,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="81" spans="2:14">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B81" s="3">
         <v>9</v>
       </c>
@@ -3511,7 +3627,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="82" spans="2:14">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B82" s="3">
         <v>10</v>
       </c>
@@ -3543,7 +3659,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="83" spans="2:14">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B83" s="3">
         <v>11</v>
       </c>
@@ -3575,7 +3691,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="21" customHeight="1">
+    <row r="84" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B84" s="3">
         <v>12</v>
       </c>
@@ -3607,7 +3723,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="85" spans="2:14">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B85" s="3">
         <v>13</v>
       </c>
@@ -3641,7 +3757,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="86" spans="2:14">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3657,7 +3773,7 @@
         <v>PRIMARY KEY (`CART_KEY`,`CART_SEQ`)</v>
       </c>
     </row>
-    <row r="87" spans="2:14">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3672,7 +3788,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="2" customFormat="1">
+    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
@@ -3680,7 +3796,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="2:14">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B90" s="5" t="s">
         <v>61</v>
       </c>
@@ -3716,7 +3832,7 @@
         <v>CREATE TABLE `ORDER_HEADER` (</v>
       </c>
     </row>
-    <row r="91" spans="2:14">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B91" s="3">
         <v>1</v>
       </c>
@@ -3752,7 +3868,7 @@
         <v>`ORDER_NO` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="92" spans="2:14">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B92" s="3">
         <v>2</v>
       </c>
@@ -3782,7 +3898,7 @@
         <v>`ORDER_DATETIME` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="93" spans="2:14">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B93" s="3">
         <v>3</v>
       </c>
@@ -3812,7 +3928,7 @@
         <v>`PAYMENT_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="94" spans="2:14">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B94" s="3">
         <v>4</v>
       </c>
@@ -3842,7 +3958,7 @@
         <v>`SHIPPING_DATE` DATE NOT NULL,</v>
       </c>
     </row>
-    <row r="95" spans="2:14">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B95" s="3">
         <v>5</v>
       </c>
@@ -3872,7 +3988,7 @@
         <v>`ORDER_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="96" spans="2:14">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B96" s="3">
         <v>6</v>
       </c>
@@ -3902,7 +4018,7 @@
         <v>`TOTAL_PRICE` MEDIUMINT(6)  NOT NULL,</v>
       </c>
     </row>
-    <row r="97" spans="2:14">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -3934,7 +4050,7 @@
         <v>`CUSTOMER_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="98" spans="2:14">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B98" s="3">
         <v>8</v>
       </c>
@@ -3966,7 +4082,7 @@
         <v>`SHIPPING_FIRST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="99" spans="2:14">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B99" s="3">
         <v>9</v>
       </c>
@@ -3998,7 +4114,7 @@
         <v>`SHIPPING_LAST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="100" spans="2:14">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B100" s="3">
         <v>10</v>
       </c>
@@ -4032,7 +4148,7 @@
         <v>`SHIPPING_POSTAL_CODE` MEDIUMINT(7)  NOT NULL,</v>
       </c>
     </row>
-    <row r="101" spans="2:14">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B101" s="3">
         <v>11</v>
       </c>
@@ -4064,7 +4180,7 @@
         <v>`SHIPPING_PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="102" spans="2:14">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B102" s="3">
         <v>12</v>
       </c>
@@ -4096,7 +4212,7 @@
         <v>`SHIPPING_ADDRESS1` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="103" spans="2:14">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B103" s="3">
         <v>13</v>
       </c>
@@ -4128,7 +4244,7 @@
         <v>`SHIPPING_ADDRESS2` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="104" spans="2:14">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B104" s="3">
         <v>14</v>
       </c>
@@ -4160,7 +4276,7 @@
         <v>`SHIPPING_ADDRESS3` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="105" spans="2:14">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B105" s="3">
         <v>15</v>
       </c>
@@ -4192,7 +4308,7 @@
         <v>`SHIPPING_ADDRESS4` VARCHAR(50) ,</v>
       </c>
     </row>
-    <row r="106" spans="2:14">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B106" s="3">
         <v>16</v>
       </c>
@@ -4224,7 +4340,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="107" spans="2:14">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B107" s="3">
         <v>17</v>
       </c>
@@ -4256,7 +4372,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="108" spans="2:14">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B108" s="3">
         <v>18</v>
       </c>
@@ -4288,7 +4404,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="109" spans="2:14" ht="21" customHeight="1">
+    <row r="109" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B109" s="3">
         <v>19</v>
       </c>
@@ -4320,7 +4436,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="110" spans="2:14">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B110" s="3">
         <v>20</v>
       </c>
@@ -4354,7 +4470,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="111" spans="2:14">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4370,7 +4486,7 @@
         <v>PRIMARY KEY (`ORDER_NO`)</v>
       </c>
     </row>
-    <row r="112" spans="2:14">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4385,7 +4501,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="2:14" s="2" customFormat="1">
+    <row r="114" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B114" s="2" t="s">
         <v>157</v>
       </c>
@@ -4393,7 +4509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="2:14">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B115" s="5" t="s">
         <v>61</v>
       </c>
@@ -4429,7 +4545,7 @@
         <v>CREATE TABLE `ORDER_DETAIL` (</v>
       </c>
     </row>
-    <row r="116" spans="2:14">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -4465,7 +4581,7 @@
         <v>`ORDER_NO` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="117" spans="2:14">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B117" s="3">
         <v>2</v>
       </c>
@@ -4499,7 +4615,7 @@
         <v>`ORDER_SEQ` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="118" spans="2:14">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B118" s="3">
         <v>3</v>
       </c>
@@ -4531,7 +4647,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="119" spans="2:14">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B119" s="3">
         <v>4</v>
       </c>
@@ -4563,7 +4679,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="120" spans="2:14">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B120" s="3">
         <v>5</v>
       </c>
@@ -4595,7 +4711,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="121" spans="2:14">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B121" s="3">
         <v>6</v>
       </c>
@@ -4629,7 +4745,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="122" spans="2:14">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B122" s="3">
         <v>7</v>
       </c>
@@ -4663,7 +4779,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="123" spans="2:14">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B123" s="3">
         <v>8</v>
       </c>
@@ -4695,7 +4811,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="124" spans="2:14">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B124" s="3">
         <v>9</v>
       </c>
@@ -4727,7 +4843,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="125" spans="2:14">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B125" s="3">
         <v>10</v>
       </c>
@@ -4759,7 +4875,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="126" spans="2:14">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B126" s="3">
         <v>11</v>
       </c>
@@ -4791,7 +4907,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="21" customHeight="1">
+    <row r="127" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B127" s="3">
         <v>12</v>
       </c>
@@ -4823,7 +4939,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="128" spans="2:14">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B128" s="3">
         <v>13</v>
       </c>
@@ -4857,7 +4973,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="129" spans="2:14">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -4873,7 +4989,7 @@
         <v>PRIMARY KEY (`ORDER_NO`,`ORDER_SEQ`)</v>
       </c>
     </row>
-    <row r="130" spans="2:14">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -4888,12 +5004,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="2:14">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:14" s="2" customFormat="1">
+    <row r="132" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="2" t="s">
         <v>153</v>
       </c>
@@ -4901,7 +5017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:14">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B133" s="5" t="s">
         <v>61</v>
       </c>
@@ -4937,7 +5053,7 @@
         <v>CREATE TABLE `CATEGORY` (</v>
       </c>
     </row>
-    <row r="134" spans="2:14">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -4971,7 +5087,7 @@
         <v>`CATEGORY_CODE` VARCHAR(3)  NOT NULL,</v>
       </c>
     </row>
-    <row r="135" spans="2:14">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -5003,7 +5119,7 @@
         <v>`CATEGORY_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="136" spans="2:14">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -5035,7 +5151,7 @@
         <v>`DEPTH` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="137" spans="2:14">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -5067,7 +5183,7 @@
         <v>`DISPLAY_ORDER` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="138" spans="2:14">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B138" s="3">
         <v>9</v>
       </c>
@@ -5099,7 +5215,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="139" spans="2:14">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B139" s="3">
         <v>10</v>
       </c>
@@ -5131,7 +5247,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="140" spans="2:14">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B140" s="3">
         <v>11</v>
       </c>
@@ -5163,7 +5279,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="141" spans="2:14" ht="21" customHeight="1">
+    <row r="141" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B141" s="3">
         <v>12</v>
       </c>
@@ -5195,7 +5311,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="142" spans="2:14">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B142" s="3">
         <v>13</v>
       </c>
@@ -5229,7 +5345,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="143" spans="2:14">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -5245,7 +5361,7 @@
         <v>PRIMARY KEY (`CATEGORY_CODE`)</v>
       </c>
     </row>
-    <row r="144" spans="2:14">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -5260,7 +5376,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="2:14" s="2" customFormat="1">
+    <row r="146" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="2" t="s">
         <v>154</v>
       </c>
@@ -5268,7 +5384,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="2:14">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B147" s="5" t="s">
         <v>61</v>
       </c>
@@ -5304,7 +5420,7 @@
         <v>CREATE TABLE `CATEGORY_ITEM` (</v>
       </c>
     </row>
-    <row r="148" spans="2:14">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B148" s="3">
         <v>1</v>
       </c>
@@ -5338,7 +5454,7 @@
         <v>`CATEGORY_CODE` VARCHAR(3)  NOT NULL,</v>
       </c>
     </row>
-    <row r="149" spans="2:14">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B149" s="3">
         <v>2</v>
       </c>
@@ -5372,7 +5488,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="150" spans="2:14">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B150" s="3">
         <v>3</v>
       </c>
@@ -5404,7 +5520,7 @@
         <v>`DISPLAY_ORDER` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="151" spans="2:14">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B151" s="3">
         <v>4</v>
       </c>
@@ -5436,7 +5552,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="152" spans="2:14">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B152" s="3">
         <v>5</v>
       </c>
@@ -5468,7 +5584,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="153" spans="2:14">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B153" s="3">
         <v>6</v>
       </c>
@@ -5500,7 +5616,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="154" spans="2:14" ht="21" customHeight="1">
+    <row r="154" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B154" s="3">
         <v>7</v>
       </c>
@@ -5532,7 +5648,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="155" spans="2:14">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B155" s="3">
         <v>8</v>
       </c>
@@ -5566,13 +5682,13 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="156" spans="2:14">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.4">
       <c r="N156" t="str">
         <f>_xlfn.CONCAT("PRIMARY KEY (`",D148,"`,`",D149,"`)")</f>
         <v>PRIMARY KEY (`CATEGORY_CODE`,`ITEM_CODE`)</v>
       </c>
     </row>
-    <row r="157" spans="2:14">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.4">
       <c r="M157" t="s">
         <v>156</v>
       </c>
@@ -5580,42 +5696,42 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E508868-6ED9-6D43-B7EF-69A7B204E4D6}">
-  <dimension ref="B2:G8"/>
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -5632,7 +5748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>166</v>
       </c>
@@ -5643,7 +5759,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>166</v>
       </c>
@@ -5652,6 +5768,56 @@
       </c>
       <c r="F8" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/開発資料.xlsx
+++ b/開発資料.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habicht\Documents\development\springboot_springthymeleaf_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7A64062-B5D4-4DEF-9F03-892C64E88517}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A7F72-D1FB-4AAB-B009-93CF5B725EDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{EA615789-2493-ED49-9566-5F80B868C8CC}"/>
+    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="16230" activeTab="1" xr2:uid="{EA615789-2493-ED49-9566-5F80B868C8CC}"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="16230" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テーブル一覧!$B$90:$K$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="185">
   <si>
     <t>会員ID</t>
     <rPh sb="0" eb="2">
@@ -1103,35 +1103,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文確定メールの発行</t>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/cart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文確定時にカートをからにすること/メール送信</t>
     <rPh sb="0" eb="2">
       <t>チュウモン</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年齢確認(購入商品事)</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コト</t>
-    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カクテイジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/v1/memberinfo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1244,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1288,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1601,8 +1609,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2EB35-8E17-8E42-8F60-D3BDDFF6E09D}">
   <dimension ref="B2:N157"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J159" sqref="J159"/>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="1">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -5702,11 +5713,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E508868-6ED9-6D43-B7EF-69A7B204E4D6}">
-  <dimension ref="B2:G18"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5771,53 +5783,94 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="F9" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
       <c r="F10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
       <c r="F11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
       <c r="F12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
       <c r="F13" t="s">
         <v>174</v>
       </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>182</v>
+      </c>
       <c r="F14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
       <c r="F15" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
       <c r="F16" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F18" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/開発資料.xlsx
+++ b/開発資料.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habicht\Documents\development\springboot_springthymeleaf_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A7F72-D1FB-4AAB-B009-93CF5B725EDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72404F3F-809A-4EFC-AE98-7C2DF3F460BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="-15" windowWidth="14430" windowHeight="16230" activeTab="1" xr2:uid="{EA615789-2493-ED49-9566-5F80B868C8CC}"/>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="16230" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1197,7 +1196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1296,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1609,11 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2EB35-8E17-8E42-8F60-D3BDDFF6E09D}">
   <dimension ref="B2:N157"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="1">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1780,29 +1785,29 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="7">
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="G9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7" t="s">
         <v>77</v>
       </c>
       <c r="K9" s="4">
@@ -1810,33 +1815,33 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>`POSTAL_CODE` MEDIUMINT(7)  NOT NULL,</v>
+        <v>`POSTAL_CODE` VARCHAR(7)  NOT NULL,</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="3">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="14">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
+      <c r="G10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14" t="s">
         <v>142</v>
       </c>
       <c r="K10" s="4">
@@ -1848,29 +1853,29 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="3">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="14">
         <v>20</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1880,29 +1885,29 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="14">
         <v>20</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1912,29 +1917,29 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="3">
+      <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="14">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
       <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1944,29 +1949,29 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="3">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="14">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="3" t="s">
         <v>13</v>
       </c>
@@ -5715,10 +5720,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E508868-6ED9-6D43-B7EF-69A7B204E4D6}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>

--- a/開発資料.xlsx
+++ b/開発資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habicht\Documents\development\springboot_springthymeleaf_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72404F3F-809A-4EFC-AE98-7C2DF3F460BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC7D72-9597-4D66-9140-EC3AEF42B4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1196,7 +1198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,12 +1214,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,9 +1292,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1618,7 +1611,7 @@
   <dimension ref="B2:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -1819,29 +1812,29 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="14">
+      <c r="B10" s="7">
         <v>5</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="G10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7" t="s">
         <v>142</v>
       </c>
       <c r="K10" s="4">
@@ -1853,29 +1846,29 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="14">
+      <c r="B11" s="7">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="7">
         <v>20</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1885,29 +1878,29 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="14">
+      <c r="B12" s="7">
         <v>7</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="7">
         <v>20</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="G12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1917,29 +1910,29 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="14">
+      <c r="B13" s="7">
         <v>8</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="G13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1949,29 +1942,29 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="14">
+      <c r="B14" s="7">
         <v>9</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="7">
         <v>50</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="3" t="s">
         <v>13</v>
       </c>

--- a/開発資料.xlsx
+++ b/開発資料.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Habicht\Documents\development\springboot_springthymeleaf_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emorishunfutoshi/Documents/RYOSUKE/dev/springboot_springthymeleaf_sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FC7D72-9597-4D66-9140-EC3AEF42B4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98085D2-1ECA-FD43-8505-40EB6EE2FE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="14400" windowHeight="16240" xr2:uid="{F1D8C74E-8783-43BE-917D-B9BB8C9ED505}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1145,7 +1145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1610,30 +1610,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C2EB35-8E17-8E42-8F60-D3BDDFF6E09D}">
   <dimension ref="B2:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="33" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" ht="33">
       <c r="B2" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" s="2" customFormat="1">
       <c r="B4" s="2" t="s">
         <v>146</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14">
       <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>CREATE TABLE `CUSTOMER` (</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>`CUSTOMER_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>`FIRST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1777,30 +1777,30 @@
         <v>`LAST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="7">
+    <row r="9" spans="2:14">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7" t="s">
+      <c r="G9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>77</v>
       </c>
       <c r="K9" s="4">
@@ -1808,33 +1808,33 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="0"/>
-        <v>`POSTAL_CODE` VARCHAR(7)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="7">
+        <v>`POSTAL_CODE` MEDIUMINT(7)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>142</v>
       </c>
       <c r="K10" s="4">
@@ -1845,30 +1845,30 @@
         <v>`PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="7">
+    <row r="11" spans="2:14">
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="G11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1877,30 +1877,30 @@
         <v>`ADDRESS1` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="7">
+    <row r="12" spans="2:14">
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>20</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="G12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1909,30 +1909,30 @@
         <v>`ADDRESS2` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="7">
+    <row r="13" spans="2:14">
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="3">
         <v>20</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="G13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
         <v>10</v>
       </c>
@@ -1941,30 +1941,30 @@
         <v>`ADDRESS3` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
+    <row r="14" spans="2:14">
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>`ADDRESS4` VARCHAR(50) ,</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>`CUSTOMER_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" ht="21" customHeight="1">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2185,7 +2185,7 @@
         <v>PRIMARY KEY (`CUSTOMER_CODE`)</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2200,7 +2200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -2212,7 +2212,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
     </row>
-    <row r="26" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14" s="2" customFormat="1">
       <c r="B26" s="2" t="s">
         <v>147</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14">
       <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>CREATE TABLE `PREF` (</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14">
       <c r="B28" s="3">
         <v>1</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>`PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>`PREF_NAME` VARCHAR(4)  NOT NULL,</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:14">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14">
       <c r="B31" s="3">
         <v>4</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:14" ht="21" customHeight="1">
       <c r="B33" s="3">
         <v>6</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:14">
       <c r="B34" s="3">
         <v>7</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:14">
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -2501,7 +2501,7 @@
         <v>PRIMARY KEY (`PREF_CODE`)</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:14">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2516,7 +2516,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:14">
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2528,7 +2528,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:14">
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2540,7 +2540,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
     </row>
-    <row r="42" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:14" s="2" customFormat="1">
       <c r="B42" s="2" t="s">
         <v>148</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14">
       <c r="B43" s="5" t="s">
         <v>61</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>CREATE TABLE `ITEM` (</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:14">
       <c r="B44" s="3">
         <v>1</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:14">
       <c r="B45" s="3">
         <v>2</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:14">
       <c r="B46" s="3">
         <v>3</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:14">
       <c r="B47" s="3">
         <v>4</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:14">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:14">
       <c r="B49" s="3">
         <v>6</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:14">
       <c r="B50" s="3">
         <v>7</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>`DESCRIPTION` VARCHAR(500) ,</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:14">
       <c r="B51" s="3">
         <v>8</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:14">
       <c r="B52" s="3">
         <v>9</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:14">
       <c r="B53" s="3">
         <v>10</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="54" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:14" ht="21" customHeight="1">
       <c r="B54" s="3">
         <v>11</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:14">
       <c r="B55" s="3">
         <v>12</v>
       </c>
@@ -2978,18 +2978,18 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:14">
       <c r="N56" t="str">
         <f>_xlfn.CONCAT("PRIMARY KEY (`",D44,"`)")</f>
         <v>PRIMARY KEY (`ITEM_CODE`)</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:14">
       <c r="M57" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:14" s="2" customFormat="1">
       <c r="B59" s="2" t="s">
         <v>149</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:14">
       <c r="B60" s="5" t="s">
         <v>61</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>CREATE TABLE `CART` (</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:14">
       <c r="B61" s="3">
         <v>1</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>`CART_KEY` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:14">
       <c r="B62" s="3">
         <v>2</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>`CART_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:14">
       <c r="B63" s="3">
         <v>3</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:14">
       <c r="B64" s="3">
         <v>4</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:14">
       <c r="B65" s="3">
         <v>5</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:14" ht="21" customHeight="1">
       <c r="B66" s="3">
         <v>6</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:14">
       <c r="B67" s="3">
         <v>7</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:14">
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -3279,7 +3279,7 @@
         <v>PRIMARY KEY (`CART_KEY`)</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:14">
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -3294,7 +3294,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:14" s="2" customFormat="1">
       <c r="B71" s="2" t="s">
         <v>150</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:14">
       <c r="B72" s="5" t="s">
         <v>61</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>CREATE TABLE `CART_DETAIL` (</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:14">
       <c r="B73" s="3">
         <v>1</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>`CART_KEY` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:14">
       <c r="B74" s="3">
         <v>2</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>`CART_SEQ` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:14">
       <c r="B75" s="3">
         <v>3</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:14">
       <c r="B76" s="3">
         <v>4</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:14">
       <c r="B77" s="3">
         <v>5</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:14">
       <c r="B78" s="3">
         <v>6</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:14">
       <c r="B79" s="3">
         <v>7</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:14">
       <c r="B80" s="3">
         <v>8</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:14">
       <c r="B81" s="3">
         <v>9</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:14">
       <c r="B82" s="3">
         <v>10</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:14">
       <c r="B83" s="3">
         <v>11</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:14" ht="21" customHeight="1">
       <c r="B84" s="3">
         <v>12</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:14">
       <c r="B85" s="3">
         <v>13</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:14">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -3782,7 +3782,7 @@
         <v>PRIMARY KEY (`CART_KEY`,`CART_SEQ`)</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:14">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -3797,7 +3797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:14" s="2" customFormat="1">
       <c r="B89" s="2" t="s">
         <v>151</v>
       </c>
@@ -3805,7 +3805,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:14">
       <c r="B90" s="5" t="s">
         <v>61</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>CREATE TABLE `ORDER_HEADER` (</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:14">
       <c r="B91" s="3">
         <v>1</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>`ORDER_NO` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:14">
       <c r="B92" s="3">
         <v>2</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>`ORDER_DATETIME` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:14">
       <c r="B93" s="3">
         <v>3</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>`PAYMENT_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:14">
       <c r="B94" s="3">
         <v>4</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>`SHIPPING_DATE` DATE NOT NULL,</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:14">
       <c r="B95" s="3">
         <v>5</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>`ORDER_STATUS` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:14">
       <c r="B96" s="3">
         <v>6</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>`TOTAL_PRICE` MEDIUMINT(6)  NOT NULL,</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:14">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>`CUSTOMER_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:14">
       <c r="B98" s="3">
         <v>8</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>`SHIPPING_FIRST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:14">
       <c r="B99" s="3">
         <v>9</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>`SHIPPING_LAST_NAME` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:14">
       <c r="B100" s="3">
         <v>10</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>`SHIPPING_POSTAL_CODE` MEDIUMINT(7)  NOT NULL,</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:14">
       <c r="B101" s="3">
         <v>11</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>`SHIPPING_PREF_CODE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:14">
       <c r="B102" s="3">
         <v>12</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>`SHIPPING_ADDRESS1` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:14">
       <c r="B103" s="3">
         <v>13</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>`SHIPPING_ADDRESS2` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:14">
       <c r="B104" s="3">
         <v>14</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>`SHIPPING_ADDRESS3` VARCHAR(20)  NOT NULL,</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:14">
       <c r="B105" s="3">
         <v>15</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>`SHIPPING_ADDRESS4` VARCHAR(50) ,</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:14">
       <c r="B106" s="3">
         <v>16</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:14">
       <c r="B107" s="3">
         <v>17</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:14">
       <c r="B108" s="3">
         <v>18</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="109" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:14" ht="21" customHeight="1">
       <c r="B109" s="3">
         <v>19</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:14">
       <c r="B110" s="3">
         <v>20</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:14">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -4495,7 +4495,7 @@
         <v>PRIMARY KEY (`ORDER_NO`)</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:14">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -4510,7 +4510,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:14" s="2" customFormat="1">
       <c r="B114" s="2" t="s">
         <v>157</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:14">
       <c r="B115" s="5" t="s">
         <v>61</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>CREATE TABLE `ORDER_DETAIL` (</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:14">
       <c r="B116" s="3">
         <v>1</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>`ORDER_NO` VARCHAR(14)  NOT NULL,</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:14">
       <c r="B117" s="3">
         <v>2</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>`ORDER_SEQ` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:14">
       <c r="B118" s="3">
         <v>3</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>62</v>
@@ -4653,10 +4653,10 @@
       </c>
       <c r="N118" t="str">
         <f t="shared" si="6"/>
-        <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.4">
+        <v>`ORDER_SEQ` VARCHAR(8)  NOT NULL,</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14">
       <c r="B119" s="3">
         <v>4</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>`ITEM_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:14">
       <c r="B120" s="3">
         <v>5</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>`PRICE` MEDIUMINT(5)  NOT NULL,</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:14">
       <c r="B121" s="3">
         <v>6</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>`TAX_RATE` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:14">
       <c r="B122" s="3">
         <v>7</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>`TAX_TYPE` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:14">
       <c r="B123" s="3">
         <v>8</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>`MAKER` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:14">
       <c r="B124" s="3">
         <v>9</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:14">
       <c r="B125" s="3">
         <v>10</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:14">
       <c r="B126" s="3">
         <v>11</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="127" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:14" ht="21" customHeight="1">
       <c r="B127" s="3">
         <v>12</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:14">
       <c r="B128" s="3">
         <v>13</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:14">
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -4998,7 +4998,7 @@
         <v>PRIMARY KEY (`ORDER_NO`,`ORDER_SEQ`)</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:14">
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -5013,12 +5013,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:14">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:14" s="2" customFormat="1">
       <c r="B132" s="2" t="s">
         <v>153</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:14">
       <c r="B133" s="5" t="s">
         <v>61</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>CREATE TABLE `CATEGORY` (</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:14">
       <c r="B134" s="3">
         <v>1</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>`CATEGORY_CODE` VARCHAR(3)  NOT NULL,</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:14">
       <c r="B135" s="3">
         <v>2</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>`CATEGORY_NAME` VARCHAR(50)  NOT NULL,</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:14">
       <c r="B136" s="3">
         <v>3</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>`DEPTH` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:14">
       <c r="B137" s="3">
         <v>4</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>`DISPLAY_ORDER` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:14">
       <c r="B138" s="3">
         <v>9</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:14">
       <c r="B139" s="3">
         <v>10</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:14">
       <c r="B140" s="3">
         <v>11</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="141" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:14" ht="21" customHeight="1">
       <c r="B141" s="3">
         <v>12</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:14">
       <c r="B142" s="3">
         <v>13</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:14">
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -5370,7 +5370,7 @@
         <v>PRIMARY KEY (`CATEGORY_CODE`)</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:14">
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -5385,7 +5385,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:14" s="2" customFormat="1">
       <c r="B146" s="2" t="s">
         <v>154</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:14">
       <c r="B147" s="5" t="s">
         <v>61</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>CREATE TABLE `CATEGORY_ITEM` (</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:14">
       <c r="B148" s="3">
         <v>1</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>`CATEGORY_CODE` VARCHAR(3)  NOT NULL,</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:14">
       <c r="B149" s="3">
         <v>2</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>`ITEM_CODE` VARCHAR(8)  NOT NULL,</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:14">
       <c r="B150" s="3">
         <v>3</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>`DISPLAY_ORDER` TINYINT(2)  NOT NULL,</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:14">
       <c r="B151" s="3">
         <v>4</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>`CREATED_USER` VARCHAR(100)  NOT NULL,</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:14">
       <c r="B152" s="3">
         <v>5</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>`CREATED_DATE` DATETIME NOT NULL,</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:14">
       <c r="B153" s="3">
         <v>6</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>`UPDATED_USER` VARCHAR(100) ,</v>
       </c>
     </row>
-    <row r="154" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:14" ht="21" customHeight="1">
       <c r="B154" s="3">
         <v>7</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>`UPDATED_DATE` DATETIME,</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:14">
       <c r="B155" s="3">
         <v>8</v>
       </c>
@@ -5691,13 +5691,13 @@
         <v>`DELETE_FLG` TINYINT(1)  NOT NULL,</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:14">
       <c r="N156" t="str">
         <f>_xlfn.CONCAT("PRIMARY KEY (`",D148,"`,`",D149,"`)")</f>
         <v>PRIMARY KEY (`CATEGORY_CODE`,`ITEM_CODE`)</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:14">
       <c r="M157" t="s">
         <v>156</v>
       </c>
@@ -5713,34 +5713,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E508868-6ED9-6D43-B7EF-69A7B204E4D6}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7">
       <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7">
       <c r="C6" t="s">
         <v>61</v>
       </c>
@@ -5757,7 +5755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7">
       <c r="D7" t="s">
         <v>166</v>
       </c>
@@ -5768,7 +5766,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7">
       <c r="D8" t="s">
         <v>166</v>
       </c>
@@ -5779,7 +5777,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="21">
       <c r="D9" t="s">
         <v>178</v>
       </c>
@@ -5790,7 +5788,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7">
       <c r="D10" t="s">
         <v>179</v>
       </c>
@@ -5801,7 +5799,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7">
       <c r="D11" t="s">
         <v>180</v>
       </c>
@@ -5812,7 +5810,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7">
       <c r="D12" t="s">
         <v>178</v>
       </c>
@@ -5823,7 +5821,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7">
       <c r="D13" t="s">
         <v>178</v>
       </c>
@@ -5837,7 +5835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7">
       <c r="D14" t="s">
         <v>180</v>
       </c>
@@ -5848,7 +5846,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7">
       <c r="D15" t="s">
         <v>178</v>
       </c>
@@ -5859,7 +5857,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7">
       <c r="D16" t="s">
         <v>178</v>
       </c>
